--- a/Pre Season Rankings/Personal rankings.xlsx
+++ b/Pre Season Rankings/Personal rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/2021 Fantasy/FantasyBasketball_2021/FantasyBasketball_2021/Pre Season Rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B2F1212C-EA67-5041-946E-C149A033D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7B1F8587-004D-854E-B3ED-EA7907A563B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60000" yWindow="-23100" windowWidth="21600" windowHeight="21980"/>
+    <workbookView xWindow="2780" yWindow="-21980" windowWidth="21600" windowHeight="21980"/>
   </bookViews>
   <sheets>
     <sheet name="FantasyPros_2021_Overall_NBA_Ra" sheetId="1" r:id="rId1"/>
@@ -1772,11 +1772,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2138,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2385,7 +2386,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
@@ -2437,7 +2438,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
@@ -2463,7 +2464,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
@@ -2593,7 +2594,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -2619,7 +2620,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
@@ -2801,7 +2802,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C26" t="s">
@@ -3191,7 +3192,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
@@ -3399,7 +3400,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C49" t="s">
@@ -3529,7 +3530,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C54" t="s">
@@ -3841,7 +3842,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C66" t="s">
@@ -4439,7 +4440,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C89" t="s">
@@ -4517,7 +4518,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C92" t="s">
@@ -4673,7 +4674,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C98" t="s">
@@ -4725,7 +4726,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C100" t="s">
@@ -4881,7 +4882,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C106" t="s">
@@ -4907,7 +4908,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C107" t="s">
@@ -4959,7 +4960,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C109" t="s">
@@ -6831,7 +6832,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C181" t="s">
@@ -10003,7 +10004,7 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" s="6" t="s">
         <v>375</v>
       </c>
       <c r="C303" t="s">
@@ -11045,6 +11046,18 @@
       <sortCondition ref="A1:A342"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="H2:H342">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>